--- a/보고서출력.xlsx
+++ b/보고서출력.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3975" yWindow="1305" windowWidth="15255" windowHeight="15135" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="보고서" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="보고서" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'보고서'!$A$1:$I$38</definedName>
@@ -984,88 +984,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <twoCellAnchor editAs="oneCell">
-    <from>
-      <col>0</col>
-      <colOff>9525</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <to>
-      <col>8</col>
-      <colOff>1027918</colOff>
-      <row>2</row>
-      <rowOff>257035</rowOff>
-    </to>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="그림 5"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="9525" y="0"/>
-          <a:ext cx="6257143" cy="1123810"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </twoCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>12</col>
-      <colOff>85726</colOff>
-      <row>0</row>
-      <rowOff>200025</rowOff>
-    </from>
-    <ext cx="2315399" cy="695325"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="그림 6"/>
-        <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
-        </cNvPicPr>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="8439151" y="200025"/>
-          <a:ext cx="2315399" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1749,10 +1667,10 @@
         </is>
       </c>
       <c r="D14" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14" t="n"/>
       <c r="G14" s="29" t="inlineStr">
@@ -1766,7 +1684,7 @@
         </is>
       </c>
       <c r="I14" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="0" t="n"/>
     </row>
@@ -1787,10 +1705,10 @@
         </is>
       </c>
       <c r="D15" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="14" t="n"/>
       <c r="G15" s="29" t="inlineStr">
@@ -1804,7 +1722,7 @@
         </is>
       </c>
       <c r="I15" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0" t="n"/>
     </row>
@@ -1824,17 +1742,15 @@
           <t>etc_beverage</t>
         </is>
       </c>
-      <c r="D16" s="80" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
+      <c r="D16" s="80" t="n">
+        <v>0</v>
       </c>
       <c r="E16" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G16" s="29" t="inlineStr">
@@ -1848,7 +1764,7 @@
         </is>
       </c>
       <c r="I16" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0" t="n"/>
     </row>
@@ -1869,10 +1785,10 @@
         </is>
       </c>
       <c r="D17" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="38" t="n"/>
       <c r="G17" s="29" t="inlineStr">
@@ -1904,14 +1820,14 @@
         </is>
       </c>
       <c r="D18" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="G18" s="0" t="n"/>
@@ -1932,7 +1848,7 @@
       </c>
       <c r="C19" s="35" t="n"/>
       <c r="D19" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="80" t="n">
         <v>0</v>
@@ -1960,10 +1876,10 @@
         </is>
       </c>
       <c r="D20" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="38" t="n"/>
       <c r="G20" s="0" t="n"/>
@@ -2070,10 +1986,10 @@
         </is>
       </c>
       <c r="D25" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="38" t="n"/>
       <c r="G25" s="0" t="n"/>
@@ -2098,10 +2014,10 @@
         </is>
       </c>
       <c r="D26" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="38" t="n"/>
       <c r="G26" s="0" t="n"/>
@@ -2154,7 +2070,7 @@
       <c r="E29" s="79" t="n"/>
       <c r="F29" s="38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t>  </t>
         </is>
       </c>
       <c r="G29" s="38" t="n"/>
@@ -2479,6 +2395,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" min="0" max="37" man="1"/>
   </colBreaks>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/보고서출력.xlsx
+++ b/보고서출력.xlsx
@@ -1431,7 +1431,7 @@
       <c r="C6" s="34" t="n"/>
       <c r="D6" s="69" t="inlineStr">
         <is>
-          <t>2024-12-19</t>
+          <t>2024-12-20</t>
         </is>
       </c>
       <c r="E6" s="70" t="n"/>
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="D31" s="80" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="E31" s="80" t="n">
-        <v>0</v>
+        <v>1342360</v>
       </c>
       <c r="F31" s="38" t="n"/>
       <c r="G31" s="38" t="n"/>
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="D32" s="84" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="E32" s="80" t="n">
-        <v>0</v>
+        <v>629265</v>
       </c>
       <c r="F32" s="38" t="n"/>
       <c r="G32" s="38" t="n"/>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="D33" s="84" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="E33" s="80" t="n">
-        <v>0</v>
+        <v>956235</v>
       </c>
       <c r="F33" s="38" t="n"/>
       <c r="G33" s="38" t="n"/>
@@ -2212,10 +2212,10 @@
         </is>
       </c>
       <c r="D34" s="84" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E34" s="80" t="n">
-        <v>0</v>
+        <v>45825</v>
       </c>
       <c r="F34" s="38" t="n"/>
       <c r="G34" s="39">
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="D35" s="84" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E35" s="80" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="29" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C36" s="35" t="n"/>
       <c r="D36" s="84" t="n">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="E36" s="80" t="n">
         <v>0</v>
